--- a/footage/Viet_tat.xlsx
+++ b/footage/Viet_tat.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SON\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SON\Desktop\Master_Thesis\footage\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC6D1372-4777-4788-8D90-772951E61B5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D06217AE-1073-45DC-AD9A-F4BF9E1705A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{19CB8E5D-33A6-4451-B030-4FE49C8143B9}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="157">
   <si>
     <t>NB</t>
   </si>
@@ -386,9 +386,6 @@
     <t>Kỹ thuật bình phương đệ quy nhỏ nhất</t>
   </si>
   <si>
-    <t>Rc</t>
-  </si>
-  <si>
     <t>Reduced cost</t>
   </si>
   <si>
@@ -471,6 +468,45 @@
   </si>
   <si>
     <t>Training-based</t>
+  </si>
+  <si>
+    <t>rc</t>
+  </si>
+  <si>
+    <t>C1</t>
+  </si>
+  <si>
+    <t>C2</t>
+  </si>
+  <si>
+    <t>C3</t>
+  </si>
+  <si>
+    <t>Constraint 1</t>
+  </si>
+  <si>
+    <t>Constraint 2</t>
+  </si>
+  <si>
+    <t>Constraint 3</t>
+  </si>
+  <si>
+    <t>Ràng buộc bậc hai</t>
+  </si>
+  <si>
+    <t>Ràng buộc tuyến tính</t>
+  </si>
+  <si>
+    <t>Ràng buộc công suất</t>
+  </si>
+  <si>
+    <t>ISDNN</t>
+  </si>
+  <si>
+    <t>Iterative sequential Deep-neural network</t>
+  </si>
+  <si>
+    <t>Mạng nơ-ron sâu tuần tự lặp lại</t>
   </si>
 </sst>
 </file>
@@ -822,10 +858,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{216B6B2A-9DCE-4BFE-9662-F8F46D24BE0D}">
-  <dimension ref="A1:D50"/>
+  <dimension ref="A1:D54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C49" sqref="C49"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="C58" sqref="C58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -840,13 +876,13 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C1" t="s">
         <v>135</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>136</v>
-      </c>
-      <c r="D1" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.45">
@@ -896,13 +932,13 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>47</v>
+        <v>145</v>
       </c>
       <c r="C5" t="s">
-        <v>51</v>
+        <v>148</v>
       </c>
       <c r="D5" t="s">
-        <v>52</v>
+        <v>151</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.45">
@@ -910,13 +946,13 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>28</v>
+        <v>146</v>
       </c>
       <c r="C6" t="s">
-        <v>27</v>
+        <v>149</v>
       </c>
       <c r="D6" t="s">
-        <v>26</v>
+        <v>152</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.45">
@@ -924,13 +960,13 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>122</v>
+        <v>147</v>
       </c>
       <c r="C7" t="s">
-        <v>122</v>
+        <v>150</v>
       </c>
       <c r="D7" t="s">
-        <v>123</v>
+        <v>153</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.45">
@@ -938,13 +974,13 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C8" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="D8" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.45">
@@ -952,13 +988,13 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="C9" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.45">
@@ -966,13 +1002,13 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>12</v>
+        <v>121</v>
       </c>
       <c r="C10" t="s">
-        <v>13</v>
+        <v>121</v>
       </c>
       <c r="D10" t="s">
-        <v>14</v>
+        <v>122</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.45">
@@ -980,13 +1016,13 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>95</v>
+        <v>45</v>
       </c>
       <c r="C11" t="s">
-        <v>96</v>
+        <v>44</v>
       </c>
       <c r="D11" t="s">
-        <v>97</v>
+        <v>46</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.45">
@@ -994,13 +1030,13 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="D12" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.45">
@@ -1008,13 +1044,13 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>129</v>
+        <v>12</v>
       </c>
       <c r="C13" t="s">
-        <v>130</v>
+        <v>13</v>
       </c>
       <c r="D13" t="s">
-        <v>131</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.45">
@@ -1022,13 +1058,13 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>126</v>
+        <v>95</v>
       </c>
       <c r="C14" t="s">
-        <v>127</v>
+        <v>96</v>
       </c>
       <c r="D14" t="s">
-        <v>128</v>
+        <v>97</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.45">
@@ -1036,13 +1072,13 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>83</v>
+        <v>23</v>
       </c>
       <c r="C15" t="s">
-        <v>84</v>
+        <v>24</v>
       </c>
       <c r="D15" t="s">
-        <v>85</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.45">
@@ -1050,13 +1086,13 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>58</v>
+        <v>128</v>
       </c>
       <c r="C16" t="s">
-        <v>56</v>
+        <v>129</v>
       </c>
       <c r="D16" t="s">
-        <v>57</v>
+        <v>130</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.45">
@@ -1064,13 +1100,13 @@
         <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>138</v>
+        <v>125</v>
       </c>
       <c r="C17" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
       <c r="D17" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.45">
@@ -1078,13 +1114,13 @@
         <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="C18" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="D18" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.45">
@@ -1092,13 +1128,13 @@
         <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>31</v>
+        <v>58</v>
       </c>
       <c r="C19" t="s">
-        <v>30</v>
+        <v>56</v>
       </c>
       <c r="D19" t="s">
-        <v>29</v>
+        <v>57</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.45">
@@ -1106,13 +1142,13 @@
         <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>107</v>
+        <v>137</v>
       </c>
       <c r="C20" t="s">
-        <v>108</v>
+        <v>138</v>
       </c>
       <c r="D20" t="s">
-        <v>109</v>
+        <v>139</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.45">
@@ -1120,13 +1156,13 @@
         <v>21</v>
       </c>
       <c r="B21" t="s">
-        <v>110</v>
+        <v>91</v>
       </c>
       <c r="C21" t="s">
-        <v>111</v>
+        <v>92</v>
       </c>
       <c r="D21" t="s">
-        <v>112</v>
+        <v>93</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.45">
@@ -1134,13 +1170,13 @@
         <v>22</v>
       </c>
       <c r="B22" t="s">
-        <v>104</v>
+        <v>31</v>
       </c>
       <c r="C22" t="s">
-        <v>105</v>
+        <v>30</v>
       </c>
       <c r="D22" t="s">
-        <v>106</v>
+        <v>29</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.45">
@@ -1148,13 +1184,13 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>101</v>
+        <v>154</v>
       </c>
       <c r="C23" t="s">
-        <v>102</v>
+        <v>155</v>
       </c>
       <c r="D23" t="s">
-        <v>103</v>
+        <v>156</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.45">
@@ -1162,13 +1198,13 @@
         <v>24</v>
       </c>
       <c r="B24" t="s">
-        <v>15</v>
+        <v>107</v>
       </c>
       <c r="C24" t="s">
-        <v>16</v>
+        <v>108</v>
       </c>
       <c r="D24" t="s">
-        <v>17</v>
+        <v>109</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.45">
@@ -1176,13 +1212,13 @@
         <v>25</v>
       </c>
       <c r="B25" t="s">
-        <v>9</v>
+        <v>110</v>
       </c>
       <c r="C25" t="s">
-        <v>10</v>
+        <v>111</v>
       </c>
       <c r="D25" t="s">
-        <v>11</v>
+        <v>112</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.45">
@@ -1190,13 +1226,13 @@
         <v>26</v>
       </c>
       <c r="B26" t="s">
-        <v>132</v>
+        <v>104</v>
       </c>
       <c r="C26" t="s">
-        <v>133</v>
+        <v>105</v>
       </c>
       <c r="D26" t="s">
-        <v>134</v>
+        <v>106</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.45">
@@ -1204,13 +1240,13 @@
         <v>27</v>
       </c>
       <c r="B27" t="s">
-        <v>20</v>
+        <v>101</v>
       </c>
       <c r="C27" t="s">
-        <v>21</v>
+        <v>102</v>
       </c>
       <c r="D27" t="s">
-        <v>22</v>
+        <v>103</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.45">
@@ -1218,13 +1254,13 @@
         <v>28</v>
       </c>
       <c r="B28" t="s">
-        <v>41</v>
+        <v>15</v>
       </c>
       <c r="C28" t="s">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="D28" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.45">
@@ -1232,13 +1268,13 @@
         <v>29</v>
       </c>
       <c r="B29" t="s">
-        <v>71</v>
+        <v>9</v>
       </c>
       <c r="C29" t="s">
-        <v>72</v>
+        <v>10</v>
       </c>
       <c r="D29" t="s">
-        <v>73</v>
+        <v>11</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.45">
@@ -1246,13 +1282,13 @@
         <v>30</v>
       </c>
       <c r="B30" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="C30" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="D30" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.45">
@@ -1260,13 +1296,13 @@
         <v>31</v>
       </c>
       <c r="B31" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="C31" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="D31" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.45">
@@ -1274,13 +1310,13 @@
         <v>32</v>
       </c>
       <c r="B32" t="s">
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="C32" t="s">
-        <v>1</v>
+        <v>43</v>
       </c>
       <c r="D32" t="s">
-        <v>2</v>
+        <v>42</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.45">
@@ -1288,13 +1324,13 @@
         <v>33</v>
       </c>
       <c r="B33" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="C33" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="D33" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.45">
@@ -1302,13 +1338,13 @@
         <v>34</v>
       </c>
       <c r="B34" t="s">
-        <v>75</v>
+        <v>123</v>
       </c>
       <c r="C34" t="s">
-        <v>74</v>
+        <v>123</v>
       </c>
       <c r="D34" t="s">
-        <v>76</v>
+        <v>124</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.45">
@@ -1316,13 +1352,13 @@
         <v>35</v>
       </c>
       <c r="B35" t="s">
-        <v>89</v>
+        <v>32</v>
       </c>
       <c r="C35" t="s">
-        <v>90</v>
+        <v>33</v>
       </c>
       <c r="D35" t="s">
-        <v>94</v>
+        <v>34</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.45">
@@ -1330,13 +1366,13 @@
         <v>36</v>
       </c>
       <c r="B36" t="s">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="C36" t="s">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="D36" t="s">
-        <v>19</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.45">
@@ -1344,13 +1380,13 @@
         <v>37</v>
       </c>
       <c r="B37" t="s">
-        <v>141</v>
+        <v>77</v>
       </c>
       <c r="C37" t="s">
-        <v>141</v>
+        <v>78</v>
       </c>
       <c r="D37" t="s">
-        <v>142</v>
+        <v>79</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.45">
@@ -1358,13 +1394,13 @@
         <v>38</v>
       </c>
       <c r="B38" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="C38" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="D38" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.45">
@@ -1372,13 +1408,13 @@
         <v>39</v>
       </c>
       <c r="B39" t="s">
-        <v>69</v>
+        <v>89</v>
       </c>
       <c r="C39" t="s">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="D39" t="s">
-        <v>68</v>
+        <v>94</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.45">
@@ -1386,13 +1422,13 @@
         <v>40</v>
       </c>
       <c r="B40" t="s">
-        <v>116</v>
+        <v>18</v>
       </c>
       <c r="C40" t="s">
-        <v>117</v>
+        <v>18</v>
       </c>
       <c r="D40" t="s">
-        <v>118</v>
+        <v>19</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.45">
@@ -1400,13 +1436,13 @@
         <v>41</v>
       </c>
       <c r="B41" t="s">
-        <v>80</v>
+        <v>140</v>
       </c>
       <c r="C41" t="s">
-        <v>81</v>
+        <v>140</v>
       </c>
       <c r="D41" t="s">
-        <v>82</v>
+        <v>141</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.45">
@@ -1414,13 +1450,13 @@
         <v>42</v>
       </c>
       <c r="B42" t="s">
-        <v>114</v>
+        <v>65</v>
       </c>
       <c r="C42" t="s">
-        <v>113</v>
+        <v>66</v>
       </c>
       <c r="D42" t="s">
-        <v>115</v>
+        <v>67</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.45">
@@ -1428,13 +1464,13 @@
         <v>43</v>
       </c>
       <c r="B43" t="s">
-        <v>3</v>
+        <v>69</v>
       </c>
       <c r="C43" t="s">
-        <v>4</v>
+        <v>70</v>
       </c>
       <c r="D43" t="s">
-        <v>5</v>
+        <v>68</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.45">
@@ -1442,13 +1478,13 @@
         <v>44</v>
       </c>
       <c r="B44" t="s">
-        <v>119</v>
+        <v>144</v>
       </c>
       <c r="C44" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="D44" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.45">
@@ -1456,13 +1492,13 @@
         <v>45</v>
       </c>
       <c r="B45" t="s">
-        <v>62</v>
+        <v>80</v>
       </c>
       <c r="C45" t="s">
-        <v>63</v>
+        <v>81</v>
       </c>
       <c r="D45" t="s">
-        <v>64</v>
+        <v>82</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.45">
@@ -1470,13 +1506,13 @@
         <v>46</v>
       </c>
       <c r="B46" t="s">
-        <v>59</v>
+        <v>114</v>
       </c>
       <c r="C46" t="s">
-        <v>60</v>
+        <v>113</v>
       </c>
       <c r="D46" t="s">
-        <v>61</v>
+        <v>115</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.45">
@@ -1484,13 +1520,13 @@
         <v>47</v>
       </c>
       <c r="B47" t="s">
-        <v>98</v>
+        <v>3</v>
       </c>
       <c r="C47" t="s">
-        <v>99</v>
+        <v>4</v>
       </c>
       <c r="D47" t="s">
-        <v>100</v>
+        <v>5</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.45">
@@ -1498,13 +1534,13 @@
         <v>48</v>
       </c>
       <c r="B48" t="s">
-        <v>53</v>
+        <v>118</v>
       </c>
       <c r="C48" t="s">
-        <v>54</v>
+        <v>119</v>
       </c>
       <c r="D48" t="s">
-        <v>55</v>
+        <v>120</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.45">
@@ -1512,13 +1548,13 @@
         <v>49</v>
       </c>
       <c r="B49" t="s">
-        <v>144</v>
+        <v>62</v>
       </c>
       <c r="C49" t="s">
-        <v>144</v>
+        <v>63</v>
       </c>
       <c r="D49" t="s">
-        <v>143</v>
+        <v>64</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.45">
@@ -1526,18 +1562,74 @@
         <v>50</v>
       </c>
       <c r="B50" t="s">
+        <v>59</v>
+      </c>
+      <c r="C50" t="s">
+        <v>60</v>
+      </c>
+      <c r="D50" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A51">
+        <v>51</v>
+      </c>
+      <c r="B51" t="s">
+        <v>98</v>
+      </c>
+      <c r="C51" t="s">
+        <v>99</v>
+      </c>
+      <c r="D51" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A52">
+        <v>52</v>
+      </c>
+      <c r="B52" t="s">
+        <v>53</v>
+      </c>
+      <c r="C52" t="s">
+        <v>54</v>
+      </c>
+      <c r="D52" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A53">
+        <v>53</v>
+      </c>
+      <c r="B53" t="s">
+        <v>143</v>
+      </c>
+      <c r="C53" t="s">
+        <v>143</v>
+      </c>
+      <c r="D53" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A54">
+        <v>54</v>
+      </c>
+      <c r="B54" t="s">
         <v>38</v>
       </c>
-      <c r="C50" t="s">
+      <c r="C54" t="s">
         <v>39</v>
       </c>
-      <c r="D50" t="s">
+      <c r="D54" t="s">
         <v>40</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:D50">
-    <sortCondition ref="B1:B50"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:A54">
+    <sortCondition ref="A1:A54"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/footage/Viet_tat.xlsx
+++ b/footage/Viet_tat.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SON\Desktop\Master_Thesis\footage\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D06217AE-1073-45DC-AD9A-F4BF9E1705A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51009282-E93F-44DA-BB78-A2AA7431D68D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{19CB8E5D-33A6-4451-B030-4FE49C8143B9}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="211">
   <si>
     <t>NB</t>
   </si>
@@ -386,21 +386,6 @@
     <t>Kỹ thuật bình phương đệ quy nhỏ nhất</t>
   </si>
   <si>
-    <t>Reduced cost</t>
-  </si>
-  <si>
-    <t>Giảm thiểu chi phí</t>
-  </si>
-  <si>
-    <t>SER</t>
-  </si>
-  <si>
-    <t>Symbol error rate</t>
-  </si>
-  <si>
-    <t>Tỷ lệ sai số ký hiệu</t>
-  </si>
-  <si>
     <t>Data-driven</t>
   </si>
   <si>
@@ -413,15 +398,6 @@
     <t>Hướng mô hình</t>
   </si>
   <si>
-    <t>FIR</t>
-  </si>
-  <si>
-    <t>Finite impulse response</t>
-  </si>
-  <si>
-    <t>Đáp ứng xung hữu hạn</t>
-  </si>
-  <si>
     <t>DoD</t>
   </si>
   <si>
@@ -449,9 +425,6 @@
     <t>Trí tuệ nhân tạo</t>
   </si>
   <si>
-    <t>I.i.d</t>
-  </si>
-  <si>
     <t>Independent and identically distributed</t>
   </si>
   <si>
@@ -470,36 +443,6 @@
     <t>Training-based</t>
   </si>
   <si>
-    <t>rc</t>
-  </si>
-  <si>
-    <t>C1</t>
-  </si>
-  <si>
-    <t>C2</t>
-  </si>
-  <si>
-    <t>C3</t>
-  </si>
-  <si>
-    <t>Constraint 1</t>
-  </si>
-  <si>
-    <t>Constraint 2</t>
-  </si>
-  <si>
-    <t>Constraint 3</t>
-  </si>
-  <si>
-    <t>Ràng buộc bậc hai</t>
-  </si>
-  <si>
-    <t>Ràng buộc tuyến tính</t>
-  </si>
-  <si>
-    <t>Ràng buộc công suất</t>
-  </si>
-  <si>
     <t>ISDNN</t>
   </si>
   <si>
@@ -507,6 +450,225 @@
   </si>
   <si>
     <t>Mạng nơ-ron sâu tuần tự lặp lại</t>
+  </si>
+  <si>
+    <t>i.i.d</t>
+  </si>
+  <si>
+    <t>CRB</t>
+  </si>
+  <si>
+    <t>Đường bao Cramér Rao Bound</t>
+  </si>
+  <si>
+    <t>CP</t>
+  </si>
+  <si>
+    <t>Tiền tố vòng</t>
+  </si>
+  <si>
+    <t>FFT</t>
+  </si>
+  <si>
+    <t>Fast fourier transform</t>
+  </si>
+  <si>
+    <t>Biến đổi Fourier nhanh</t>
+  </si>
+  <si>
+    <t>OP</t>
+  </si>
+  <si>
+    <t>Only pilot</t>
+  </si>
+  <si>
+    <t>Chỉ sử dụng các ký hiệu hoa tiêu</t>
+  </si>
+  <si>
+    <t>OFDM</t>
+  </si>
+  <si>
+    <t>Orthogonal frequency-division multiplexing</t>
+  </si>
+  <si>
+    <t>Ghép kênh phân chia theo tần số trực giao</t>
+  </si>
+  <si>
+    <t>ULA</t>
+  </si>
+  <si>
+    <t>Mảng thẳng cách đều</t>
+  </si>
+  <si>
+    <t>UCyA</t>
+  </si>
+  <si>
+    <t>Mảng trụ đồng nhất</t>
+  </si>
+  <si>
+    <t>UCA</t>
+  </si>
+  <si>
+    <t>Uniform circle array</t>
+  </si>
+  <si>
+    <t>Uniform cylindrical array</t>
+  </si>
+  <si>
+    <t>Uniform linear array</t>
+  </si>
+  <si>
+    <t>Cramér Rao bound</t>
+  </si>
+  <si>
+    <t>Cyclic prefix</t>
+  </si>
+  <si>
+    <t>Mảng tròn cách đều</t>
+  </si>
+  <si>
+    <t>FIM</t>
+  </si>
+  <si>
+    <t>Fisher Information Matrix</t>
+  </si>
+  <si>
+    <t>Ma trận thông tin Fisher</t>
+  </si>
+  <si>
+    <t>Pdf</t>
+  </si>
+  <si>
+    <t>Probability density function</t>
+  </si>
+  <si>
+    <t>Hàm mật độ xác suất</t>
+  </si>
+  <si>
+    <t>DMRS</t>
+  </si>
+  <si>
+    <t>Demodulation reference signal</t>
+  </si>
+  <si>
+    <t>Tín hiệu tham chiếu giải điều chế</t>
+  </si>
+  <si>
+    <t>PTRS</t>
+  </si>
+  <si>
+    <t>Tín hiệu tham chiếu theo dõi pha</t>
+  </si>
+  <si>
+    <t>Phase tracking reference signal</t>
+  </si>
+  <si>
+    <t>SRS</t>
+  </si>
+  <si>
+    <t>Sounding reference signal</t>
+  </si>
+  <si>
+    <t>Tín hiệu tham chiếu âm thanh</t>
+  </si>
+  <si>
+    <t>CSI-RS</t>
+  </si>
+  <si>
+    <t>Channel state information - reference signal</t>
+  </si>
+  <si>
+    <t>Tín hiệu tham chiếu thông tin trạng thái kênh truyền</t>
+  </si>
+  <si>
+    <t>PCCH</t>
+  </si>
+  <si>
+    <t>BCCH</t>
+  </si>
+  <si>
+    <t>CCCH</t>
+  </si>
+  <si>
+    <t>DCCH</t>
+  </si>
+  <si>
+    <t>DTCH</t>
+  </si>
+  <si>
+    <t>DL-SCH</t>
+  </si>
+  <si>
+    <t>UL-SCH</t>
+  </si>
+  <si>
+    <t>RACH</t>
+  </si>
+  <si>
+    <t>PSS</t>
+  </si>
+  <si>
+    <t>SSS</t>
+  </si>
+  <si>
+    <t>Downlink shared channel</t>
+  </si>
+  <si>
+    <t>Uplink shared channel</t>
+  </si>
+  <si>
+    <t>Paging control channel</t>
+  </si>
+  <si>
+    <t>Broadcast control channel</t>
+  </si>
+  <si>
+    <t>Common control channel</t>
+  </si>
+  <si>
+    <t>Dedicated control channel</t>
+  </si>
+  <si>
+    <t>Dedicated traffic channel</t>
+  </si>
+  <si>
+    <t>Random access channel</t>
+  </si>
+  <si>
+    <t>Primary synchronization signal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Secondary synchronization signal </t>
+  </si>
+  <si>
+    <t>Kênh điều khiển phát sóng</t>
+  </si>
+  <si>
+    <t>Kênh điều khiển chung</t>
+  </si>
+  <si>
+    <t>Kênh điều khiển chuyên dụng</t>
+  </si>
+  <si>
+    <t>Kênh lưu lượng chuyên dụng</t>
+  </si>
+  <si>
+    <t>Kênh chia sẻ đường xuống</t>
+  </si>
+  <si>
+    <t>Kênh chia sẻ đường lên</t>
+  </si>
+  <si>
+    <t>Kênh truy cập ngẫu nhiên</t>
+  </si>
+  <si>
+    <t>Tín hiệu đồng bộ sơ cấp</t>
+  </si>
+  <si>
+    <t>Tín hiệu đồng bộ thứ cấp</t>
+  </si>
+  <si>
+    <t>Kênh điều khiển paging</t>
   </si>
 </sst>
 </file>
@@ -858,10 +1020,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{216B6B2A-9DCE-4BFE-9662-F8F46D24BE0D}">
-  <dimension ref="A1:D54"/>
+  <dimension ref="A1:D72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="C58" sqref="C58"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C74" sqref="C74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -876,13 +1038,13 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="C1" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="D1" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.45">
@@ -915,721 +1077,973 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4">
-        <v>4</v>
+        <v>64</v>
       </c>
       <c r="B4" t="s">
-        <v>86</v>
+        <v>182</v>
       </c>
       <c r="C4" t="s">
-        <v>87</v>
+        <v>194</v>
       </c>
       <c r="D4" t="s">
-        <v>88</v>
+        <v>201</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A5">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>145</v>
+        <v>86</v>
       </c>
       <c r="C5" t="s">
-        <v>148</v>
+        <v>87</v>
       </c>
       <c r="D5" t="s">
-        <v>151</v>
+        <v>88</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A6">
-        <v>6</v>
+        <v>65</v>
       </c>
       <c r="B6" t="s">
-        <v>146</v>
+        <v>183</v>
       </c>
       <c r="C6" t="s">
-        <v>149</v>
+        <v>195</v>
       </c>
       <c r="D6" t="s">
-        <v>152</v>
+        <v>202</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A7">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>147</v>
+        <v>47</v>
       </c>
       <c r="C7" t="s">
-        <v>150</v>
+        <v>51</v>
       </c>
       <c r="D7" t="s">
-        <v>153</v>
+        <v>52</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A8">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>47</v>
+        <v>141</v>
       </c>
       <c r="C8" t="s">
-        <v>51</v>
+        <v>161</v>
       </c>
       <c r="D8" t="s">
-        <v>52</v>
+        <v>142</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A9">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B9" t="s">
-        <v>28</v>
+        <v>139</v>
       </c>
       <c r="C9" t="s">
-        <v>27</v>
+        <v>160</v>
       </c>
       <c r="D9" t="s">
-        <v>26</v>
+        <v>140</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A10">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>121</v>
+        <v>28</v>
       </c>
       <c r="C10" t="s">
-        <v>121</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>122</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A11">
-        <v>11</v>
+        <v>62</v>
       </c>
       <c r="B11" t="s">
-        <v>45</v>
+        <v>178</v>
       </c>
       <c r="C11" t="s">
-        <v>44</v>
+        <v>179</v>
       </c>
       <c r="D11" t="s">
-        <v>46</v>
+        <v>180</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A12">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>35</v>
+        <v>116</v>
       </c>
       <c r="C12" t="s">
-        <v>36</v>
+        <v>116</v>
       </c>
       <c r="D12" t="s">
-        <v>37</v>
+        <v>117</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A13">
-        <v>13</v>
+        <v>66</v>
       </c>
       <c r="B13" t="s">
-        <v>12</v>
+        <v>184</v>
       </c>
       <c r="C13" t="s">
-        <v>13</v>
+        <v>196</v>
       </c>
       <c r="D13" t="s">
-        <v>14</v>
+        <v>203</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A14">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>95</v>
+        <v>45</v>
       </c>
       <c r="C14" t="s">
-        <v>96</v>
+        <v>44</v>
       </c>
       <c r="D14" t="s">
-        <v>97</v>
+        <v>46</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A15">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="C15" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="D15" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A16">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B16" t="s">
-        <v>128</v>
+        <v>12</v>
       </c>
       <c r="C16" t="s">
-        <v>129</v>
+        <v>13</v>
       </c>
       <c r="D16" t="s">
-        <v>130</v>
+        <v>14</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A17">
-        <v>17</v>
+        <v>68</v>
       </c>
       <c r="B17" t="s">
-        <v>125</v>
+        <v>186</v>
       </c>
       <c r="C17" t="s">
-        <v>126</v>
+        <v>191</v>
       </c>
       <c r="D17" t="s">
-        <v>127</v>
+        <v>205</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A18">
-        <v>18</v>
+        <v>59</v>
       </c>
       <c r="B18" t="s">
-        <v>83</v>
+        <v>169</v>
       </c>
       <c r="C18" t="s">
-        <v>84</v>
+        <v>170</v>
       </c>
       <c r="D18" t="s">
-        <v>85</v>
+        <v>171</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A19">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B19" t="s">
-        <v>58</v>
+        <v>95</v>
       </c>
       <c r="C19" t="s">
-        <v>56</v>
+        <v>96</v>
       </c>
       <c r="D19" t="s">
-        <v>57</v>
+        <v>97</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A20">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B20" t="s">
-        <v>137</v>
+        <v>23</v>
       </c>
       <c r="C20" t="s">
-        <v>138</v>
+        <v>24</v>
       </c>
       <c r="D20" t="s">
-        <v>139</v>
+        <v>25</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A21">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B21" t="s">
-        <v>91</v>
+        <v>120</v>
       </c>
       <c r="C21" t="s">
-        <v>92</v>
+        <v>121</v>
       </c>
       <c r="D21" t="s">
-        <v>93</v>
+        <v>122</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A22">
-        <v>22</v>
+        <v>67</v>
       </c>
       <c r="B22" t="s">
-        <v>31</v>
+        <v>185</v>
       </c>
       <c r="C22" t="s">
-        <v>30</v>
+        <v>197</v>
       </c>
       <c r="D22" t="s">
-        <v>29</v>
+        <v>204</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A23">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="B23" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
       <c r="C23" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
       <c r="D23" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A24">
-        <v>24</v>
+        <v>57</v>
       </c>
       <c r="B24" t="s">
-        <v>107</v>
+        <v>163</v>
       </c>
       <c r="C24" t="s">
-        <v>108</v>
+        <v>164</v>
       </c>
       <c r="D24" t="s">
-        <v>109</v>
+        <v>165</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A25">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="B25" t="s">
-        <v>110</v>
+        <v>83</v>
       </c>
       <c r="C25" t="s">
-        <v>111</v>
+        <v>84</v>
       </c>
       <c r="D25" t="s">
-        <v>112</v>
+        <v>85</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A26">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="B26" t="s">
-        <v>104</v>
+        <v>58</v>
       </c>
       <c r="C26" t="s">
-        <v>105</v>
+        <v>56</v>
       </c>
       <c r="D26" t="s">
-        <v>106</v>
+        <v>57</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A27">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="B27" t="s">
-        <v>101</v>
+        <v>138</v>
       </c>
       <c r="C27" t="s">
-        <v>102</v>
+        <v>129</v>
       </c>
       <c r="D27" t="s">
-        <v>103</v>
+        <v>130</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A28">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="B28" t="s">
-        <v>15</v>
+        <v>91</v>
       </c>
       <c r="C28" t="s">
-        <v>16</v>
+        <v>92</v>
       </c>
       <c r="D28" t="s">
-        <v>17</v>
+        <v>93</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A29">
+        <v>22</v>
+      </c>
+      <c r="B29" t="s">
+        <v>31</v>
+      </c>
+      <c r="C29" t="s">
+        <v>30</v>
+      </c>
+      <c r="D29" t="s">
         <v>29</v>
-      </c>
-      <c r="B29" t="s">
-        <v>9</v>
-      </c>
-      <c r="C29" t="s">
-        <v>10</v>
-      </c>
-      <c r="D29" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A30">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="B30" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="C30" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="D30" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A31">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="B31" t="s">
-        <v>20</v>
+        <v>107</v>
       </c>
       <c r="C31" t="s">
-        <v>21</v>
+        <v>108</v>
       </c>
       <c r="D31" t="s">
-        <v>22</v>
+        <v>109</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A32">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="B32" t="s">
-        <v>41</v>
+        <v>110</v>
       </c>
       <c r="C32" t="s">
-        <v>43</v>
+        <v>111</v>
       </c>
       <c r="D32" t="s">
-        <v>42</v>
+        <v>112</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A33">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="B33" t="s">
-        <v>71</v>
+        <v>104</v>
       </c>
       <c r="C33" t="s">
-        <v>72</v>
+        <v>105</v>
       </c>
       <c r="D33" t="s">
-        <v>73</v>
+        <v>106</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A34">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="B34" t="s">
-        <v>123</v>
+        <v>101</v>
       </c>
       <c r="C34" t="s">
-        <v>123</v>
+        <v>102</v>
       </c>
       <c r="D34" t="s">
-        <v>124</v>
+        <v>103</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A35">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="B35" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="C35" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="D35" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A36">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="B36" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C36" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D36" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A37">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B37" t="s">
-        <v>77</v>
+        <v>123</v>
       </c>
       <c r="C37" t="s">
-        <v>78</v>
+        <v>124</v>
       </c>
       <c r="D37" t="s">
-        <v>79</v>
+        <v>125</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A38">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="B38" t="s">
-        <v>75</v>
+        <v>20</v>
       </c>
       <c r="C38" t="s">
-        <v>74</v>
+        <v>21</v>
       </c>
       <c r="D38" t="s">
-        <v>76</v>
+        <v>22</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A39">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="B39" t="s">
-        <v>89</v>
+        <v>41</v>
       </c>
       <c r="C39" t="s">
-        <v>90</v>
+        <v>43</v>
       </c>
       <c r="D39" t="s">
-        <v>94</v>
+        <v>42</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A40">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="B40" t="s">
-        <v>18</v>
+        <v>71</v>
       </c>
       <c r="C40" t="s">
-        <v>18</v>
+        <v>72</v>
       </c>
       <c r="D40" t="s">
-        <v>19</v>
+        <v>73</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A41">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="B41" t="s">
-        <v>140</v>
+        <v>118</v>
       </c>
       <c r="C41" t="s">
-        <v>140</v>
+        <v>118</v>
       </c>
       <c r="D41" t="s">
-        <v>141</v>
+        <v>119</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A42">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="B42" t="s">
-        <v>65</v>
+        <v>32</v>
       </c>
       <c r="C42" t="s">
-        <v>66</v>
+        <v>33</v>
       </c>
       <c r="D42" t="s">
-        <v>67</v>
+        <v>34</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A43">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="B43" t="s">
-        <v>69</v>
+        <v>0</v>
       </c>
       <c r="C43" t="s">
-        <v>70</v>
+        <v>1</v>
       </c>
       <c r="D43" t="s">
-        <v>68</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A44">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="B44" t="s">
-        <v>144</v>
+        <v>77</v>
       </c>
       <c r="C44" t="s">
-        <v>116</v>
+        <v>78</v>
       </c>
       <c r="D44" t="s">
-        <v>117</v>
+        <v>79</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A45">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>80</v>
+        <v>149</v>
       </c>
       <c r="C45" t="s">
-        <v>81</v>
+        <v>150</v>
       </c>
       <c r="D45" t="s">
-        <v>82</v>
+        <v>151</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A46">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="B46" t="s">
-        <v>114</v>
+        <v>146</v>
       </c>
       <c r="C46" t="s">
-        <v>113</v>
+        <v>147</v>
       </c>
       <c r="D46" t="s">
-        <v>115</v>
+        <v>148</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A47">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="B47" t="s">
-        <v>3</v>
+        <v>75</v>
       </c>
       <c r="C47" t="s">
-        <v>4</v>
+        <v>74</v>
       </c>
       <c r="D47" t="s">
-        <v>5</v>
+        <v>76</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A48">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="B48" t="s">
-        <v>118</v>
+        <v>89</v>
       </c>
       <c r="C48" t="s">
-        <v>119</v>
+        <v>90</v>
       </c>
       <c r="D48" t="s">
-        <v>120</v>
+        <v>94</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A49">
-        <v>49</v>
+        <v>63</v>
       </c>
       <c r="B49" t="s">
-        <v>62</v>
+        <v>181</v>
       </c>
       <c r="C49" t="s">
-        <v>63</v>
+        <v>193</v>
       </c>
       <c r="D49" t="s">
-        <v>64</v>
+        <v>210</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A50">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="B50" t="s">
-        <v>59</v>
+        <v>166</v>
       </c>
       <c r="C50" t="s">
-        <v>60</v>
+        <v>167</v>
       </c>
       <c r="D50" t="s">
-        <v>61</v>
+        <v>168</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A51">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="B51" t="s">
-        <v>98</v>
+        <v>18</v>
       </c>
       <c r="C51" t="s">
-        <v>99</v>
+        <v>18</v>
       </c>
       <c r="D51" t="s">
-        <v>100</v>
+        <v>19</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A52">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="B52" t="s">
-        <v>53</v>
+        <v>131</v>
       </c>
       <c r="C52" t="s">
-        <v>54</v>
+        <v>131</v>
       </c>
       <c r="D52" t="s">
-        <v>55</v>
+        <v>132</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A53">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="B53" t="s">
-        <v>143</v>
+        <v>65</v>
       </c>
       <c r="C53" t="s">
-        <v>143</v>
+        <v>66</v>
       </c>
       <c r="D53" t="s">
-        <v>142</v>
+        <v>67</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A54">
+        <v>71</v>
+      </c>
+      <c r="B54" t="s">
+        <v>189</v>
+      </c>
+      <c r="C54" t="s">
+        <v>199</v>
+      </c>
+      <c r="D54" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A55">
+        <v>60</v>
+      </c>
+      <c r="B55" t="s">
+        <v>172</v>
+      </c>
+      <c r="C55" t="s">
+        <v>174</v>
+      </c>
+      <c r="D55" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A56">
+        <v>43</v>
+      </c>
+      <c r="B56" t="s">
+        <v>69</v>
+      </c>
+      <c r="C56" t="s">
+        <v>70</v>
+      </c>
+      <c r="D56" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A57">
+        <v>70</v>
+      </c>
+      <c r="B57" t="s">
+        <v>188</v>
+      </c>
+      <c r="C57" t="s">
+        <v>198</v>
+      </c>
+      <c r="D57" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A58">
+        <v>45</v>
+      </c>
+      <c r="B58" t="s">
+        <v>80</v>
+      </c>
+      <c r="C58" t="s">
+        <v>81</v>
+      </c>
+      <c r="D58" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A59">
+        <v>46</v>
+      </c>
+      <c r="B59" t="s">
+        <v>114</v>
+      </c>
+      <c r="C59" t="s">
+        <v>113</v>
+      </c>
+      <c r="D59" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A60">
+        <v>47</v>
+      </c>
+      <c r="B60" t="s">
+        <v>3</v>
+      </c>
+      <c r="C60" t="s">
+        <v>4</v>
+      </c>
+      <c r="D60" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A61">
+        <v>49</v>
+      </c>
+      <c r="B61" t="s">
+        <v>62</v>
+      </c>
+      <c r="C61" t="s">
+        <v>63</v>
+      </c>
+      <c r="D61" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A62">
+        <v>50</v>
+      </c>
+      <c r="B62" t="s">
+        <v>59</v>
+      </c>
+      <c r="C62" t="s">
+        <v>60</v>
+      </c>
+      <c r="D62" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A63">
+        <v>51</v>
+      </c>
+      <c r="B63" t="s">
+        <v>98</v>
+      </c>
+      <c r="C63" t="s">
+        <v>99</v>
+      </c>
+      <c r="D63" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A64">
+        <v>52</v>
+      </c>
+      <c r="B64" t="s">
+        <v>53</v>
+      </c>
+      <c r="C64" t="s">
         <v>54</v>
       </c>
-      <c r="B54" t="s">
+      <c r="D64" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A65">
+        <v>61</v>
+      </c>
+      <c r="B65" t="s">
+        <v>175</v>
+      </c>
+      <c r="C65" t="s">
+        <v>176</v>
+      </c>
+      <c r="D65" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A66">
+        <v>72</v>
+      </c>
+      <c r="B66" t="s">
+        <v>190</v>
+      </c>
+      <c r="C66" t="s">
+        <v>200</v>
+      </c>
+      <c r="D66" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A67">
+        <v>53</v>
+      </c>
+      <c r="B67" t="s">
+        <v>134</v>
+      </c>
+      <c r="C67" t="s">
+        <v>134</v>
+      </c>
+      <c r="D67" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A68">
+        <v>56</v>
+      </c>
+      <c r="B68" t="s">
+        <v>156</v>
+      </c>
+      <c r="C68" t="s">
+        <v>157</v>
+      </c>
+      <c r="D68" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A69">
+        <v>55</v>
+      </c>
+      <c r="B69" t="s">
+        <v>154</v>
+      </c>
+      <c r="C69" t="s">
+        <v>158</v>
+      </c>
+      <c r="D69" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A70">
+        <v>48</v>
+      </c>
+      <c r="B70" t="s">
+        <v>152</v>
+      </c>
+      <c r="C70" t="s">
+        <v>159</v>
+      </c>
+      <c r="D70" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A71">
+        <v>69</v>
+      </c>
+      <c r="B71" t="s">
+        <v>187</v>
+      </c>
+      <c r="C71" t="s">
+        <v>192</v>
+      </c>
+      <c r="D71" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A72">
+        <v>54</v>
+      </c>
+      <c r="B72" t="s">
         <v>38</v>
       </c>
-      <c r="C54" t="s">
+      <c r="C72" t="s">
         <v>39</v>
       </c>
-      <c r="D54" t="s">
+      <c r="D72" t="s">
         <v>40</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:A54">
-    <sortCondition ref="A1:A54"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:D72">
+    <sortCondition ref="B1:B72"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
